--- a/MTO; SKID GAS.xlsx
+++ b/MTO; SKID GAS.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>8.5</v>
+        <v>8.500000000000002</v>
       </c>
       <c r="B2" t="str">
         <v>M.L</v>
@@ -455,13 +455,13 @@
         <v>13.817600000000002</v>
       </c>
       <c r="F3">
-        <v>20150.3484081344</v>
+        <v>20150.348408134403</v>
       </c>
       <c r="G3">
         <v>67221.06276798081</v>
       </c>
       <c r="H3">
-        <v>46378.0319969984</v>
+        <v>46378.031996998405</v>
       </c>
       <c r="I3">
         <v>5.440000000000002</v>
@@ -481,24 +481,24 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E4">
-        <v>69.32059999999998</v>
+        <v>69.3206</v>
       </c>
       <c r="F4">
         <v>12840.427270199398</v>
       </c>
       <c r="G4">
-        <v>515924.987904449</v>
+        <v>515924.9879044491</v>
       </c>
       <c r="H4">
-        <v>276939.6918073779</v>
+        <v>276939.69180737785</v>
       </c>
       <c r="I4">
-        <v>11.289999999999996</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>9.82</v>
+        <v>9.819999999999999</v>
       </c>
       <c r="B5" t="str">
         <v>M.L</v>
@@ -522,7 +522,7 @@
         <v>881143.5606217633</v>
       </c>
       <c r="I5">
-        <v>28.26</v>
+        <v>28.26000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>282.18960000000004</v>
       </c>
       <c r="F6">
-        <v>213964.0530690159</v>
+        <v>213964.05306901594</v>
       </c>
       <c r="G6">
         <v>2318905.341523517</v>
@@ -571,13 +571,13 @@
         <v>821.376</v>
       </c>
       <c r="F7">
-        <v>1736341.6361285807</v>
+        <v>1736341.6361285804</v>
       </c>
       <c r="G7">
-        <v>4033760.3524337457</v>
+        <v>4033760.352433747</v>
       </c>
       <c r="H7">
-        <v>1651311.1224804313</v>
+        <v>1651311.122480431</v>
       </c>
       <c r="I7">
         <v>22.32</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>20.290000000000013</v>
+        <v>20.290000000000017</v>
       </c>
       <c r="B8" t="str">
         <v>M.L</v>
@@ -597,19 +597,19 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E8">
-        <v>39.56550000000004</v>
+        <v>39.56549999999999</v>
       </c>
       <c r="F8">
-        <v>46927.42811606851</v>
+        <v>46927.428116068506</v>
       </c>
       <c r="G8">
-        <v>249728.0335984786</v>
+        <v>249728.0335984785</v>
       </c>
       <c r="H8">
-        <v>18541.651260405004</v>
+        <v>18541.651260405008</v>
       </c>
       <c r="I8">
-        <v>1.9500000000000008</v>
+        <v>1.949999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -626,24 +626,24 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E9">
-        <v>122.66999999999999</v>
+        <v>122.6700000000001</v>
       </c>
       <c r="F9">
-        <v>251568.20536234992</v>
+        <v>251568.2053623499</v>
       </c>
       <c r="G9">
-        <v>616153.6010233241</v>
+        <v>616153.6010233243</v>
       </c>
       <c r="H9">
-        <v>58271.565520699995</v>
+        <v>58271.565520700016</v>
       </c>
       <c r="I9">
-        <v>2.899999999999999</v>
+        <v>2.9000000000000017</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.260000000000005</v>
+        <v>40.26000000000001</v>
       </c>
       <c r="B10" t="str">
         <v>M.L</v>
@@ -658,21 +658,21 @@
         <v>170.70240000000004</v>
       </c>
       <c r="F10">
-        <v>118636.82466619762</v>
+        <v>118636.82466619754</v>
       </c>
       <c r="G10">
         <v>776258.0396696008</v>
       </c>
       <c r="H10">
-        <v>139094.57967467286</v>
+        <v>139094.5796746728</v>
       </c>
       <c r="I10">
-        <v>4.24</v>
+        <v>4.239999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>8.680000000000003</v>
+        <v>8.680000000000001</v>
       </c>
       <c r="B11" t="str">
         <v>M.L</v>
@@ -684,19 +684,19 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E11">
-        <v>62.929999999999986</v>
+        <v>62.92999999999999</v>
       </c>
       <c r="F11">
-        <v>96134.763586345</v>
+        <v>96134.76358634501</v>
       </c>
       <c r="G11">
-        <v>402353.6984732549</v>
+        <v>402353.69847325503</v>
       </c>
       <c r="H11">
         <v>210635.19951633248</v>
       </c>
       <c r="I11">
-        <v>7.249999999999996</v>
+        <v>7.249999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +716,7 @@
         <v>8.888</v>
       </c>
       <c r="F12">
-        <v>4251.279504976899</v>
+        <v>4251.2795049769</v>
       </c>
       <c r="G12">
         <v>95717.3924798157</v>
@@ -832,13 +832,13 @@
         <v>1.17</v>
       </c>
       <c r="F16">
-        <v>790.6562030900001</v>
+        <v>790.65620309</v>
       </c>
       <c r="G16">
         <v>1820.96922241</v>
       </c>
       <c r="H16">
-        <v>245.87589286000002</v>
+        <v>245.87589286000005</v>
       </c>
       <c r="I16">
         <v>0.13</v>
@@ -948,13 +948,13 @@
         <v>13.75</v>
       </c>
       <c r="F20">
-        <v>15034.96903975</v>
+        <v>15034.969039749998</v>
       </c>
       <c r="G20">
         <v>118406.56618724999</v>
       </c>
       <c r="H20">
-        <v>24836.36909875</v>
+        <v>24836.369098749998</v>
       </c>
       <c r="I20">
         <v>2.75</v>
@@ -977,10 +977,10 @@
         <v>124.20000000000006</v>
       </c>
       <c r="F21">
-        <v>235582.89024779998</v>
+        <v>235582.8902478</v>
       </c>
       <c r="G21">
-        <v>856594.9240937999</v>
+        <v>856594.9240938001</v>
       </c>
       <c r="H21">
         <v>281547.4333374</v>
@@ -1006,13 +1006,13 @@
         <v>0.76</v>
       </c>
       <c r="F22">
-        <v>670.6873859000001</v>
+        <v>670.6873859</v>
       </c>
       <c r="G22">
-        <v>3241.85215288</v>
+        <v>3241.8521528799997</v>
       </c>
       <c r="H22">
-        <v>303.21580255000003</v>
+        <v>303.21580255</v>
       </c>
       <c r="I22">
         <v>0.19</v>
@@ -1038,10 +1038,10 @@
         <v>4101.9140556</v>
       </c>
       <c r="G23">
-        <v>21608.064455249998</v>
+        <v>21608.06445525</v>
       </c>
       <c r="H23">
-        <v>957.5468056499998</v>
+        <v>957.54680565</v>
       </c>
       <c r="I23">
         <v>0.14999999999999997</v>
@@ -1064,13 +1064,13 @@
         <v>3.120000000000001</v>
       </c>
       <c r="F24">
-        <v>5481.285383279999</v>
+        <v>5481.285383279998</v>
       </c>
       <c r="G24">
-        <v>22708.964372159997</v>
+        <v>22708.96437216</v>
       </c>
       <c r="H24">
-        <v>2021.1223891199998</v>
+        <v>2021.1223891199993</v>
       </c>
       <c r="I24">
         <v>0.24000000000000007</v>
@@ -1099,7 +1099,7 @@
         <v>15549.847975839999</v>
       </c>
       <c r="H25">
-        <v>7293.404916160001</v>
+        <v>7293.4049161600005</v>
       </c>
       <c r="I25">
         <v>0.37999999999999995</v>
@@ -1128,7 +1128,7 @@
         <v>49437.88153824</v>
       </c>
       <c r="H26">
-        <v>16146.39911808</v>
+        <v>16146.399118079999</v>
       </c>
       <c r="I26">
         <v>0.96</v>
@@ -1154,7 +1154,7 @@
         <v>7680.265632000001</v>
       </c>
       <c r="G27">
-        <v>726676.369712</v>
+        <v>726676.3697119999</v>
       </c>
       <c r="H27">
         <v>304813.541616</v>
@@ -1165,28 +1165,28 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="str">
         <v>U.N</v>
       </c>
       <c r="C28" t="str">
-        <v>4"x3"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D28" t="str">
         <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>19004.818014</v>
+        <v>4092.918221</v>
       </c>
       <c r="G28">
-        <v>181479.40617099998</v>
+        <v>90721.465282</v>
       </c>
       <c r="H28">
-        <v>29801.54394</v>
+        <v>27317.697246</v>
       </c>
       <c r="I28">
         <v>7</v>
@@ -1194,31 +1194,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B29" t="str">
         <v>U.N</v>
       </c>
       <c r="C29" t="str">
-        <v>1"x1/2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D29" t="str">
-        <v>TEE RED, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E29">
-        <v>4.770000000000001</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>1839.1640441400002</v>
+        <v>14911.899793</v>
       </c>
       <c r="G29">
-        <v>29205.811549300004</v>
+        <v>90757.94088899999</v>
       </c>
       <c r="H29">
-        <v>1023.5257148199998</v>
+        <v>2483.846694</v>
       </c>
       <c r="I29">
-        <v>0.5300000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1244,7 +1244,7 @@
         <v>29158.001703</v>
       </c>
       <c r="H30">
-        <v>15799.88509245</v>
+        <v>15799.885092450002</v>
       </c>
       <c r="I30">
         <v>1.3500000000000003</v>
@@ -1252,65 +1252,65 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="str">
         <v>U.N</v>
       </c>
       <c r="C31" t="str">
-        <v>1/2"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D31" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E31">
-        <v>0.26</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="F31">
-        <v>103.45756772</v>
+        <v>1141.3132428899999</v>
       </c>
       <c r="G31">
-        <v>752.37348134</v>
+        <v>13622.58682901</v>
       </c>
       <c r="H31">
-        <v>54.221217960000004</v>
+        <v>568.62542904</v>
       </c>
       <c r="I31">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="str">
         <v>U.N</v>
       </c>
       <c r="C32" t="str">
-        <v>4"</v>
+        <v>1"x1/2"x1"</v>
       </c>
       <c r="D32" t="str">
-        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E32">
-        <v>16.88</v>
+        <v>2.12</v>
       </c>
       <c r="F32">
-        <v>22914.38057688</v>
+        <v>697.8508012500001</v>
       </c>
       <c r="G32">
-        <v>193855.05595943998</v>
+        <v>15583.22472029</v>
       </c>
       <c r="H32">
-        <v>31095.34998012</v>
+        <v>454.90028578</v>
       </c>
       <c r="I32">
-        <v>8.44</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="str">
         <v>U.N</v>
@@ -1319,51 +1319,51 @@
         <v>1/2"</v>
       </c>
       <c r="D33" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>103.45756772</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>752.37348134</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>54.221217960000004</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B34" t="str">
         <v>U.N</v>
       </c>
       <c r="C34" t="str">
-        <v>3/4"</v>
+        <v>4"</v>
       </c>
       <c r="D34" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>16.88</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>22914.38057688</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>193855.05595943998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>31095.34998012</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="35">
@@ -1403,10 +1403,10 @@
         <v>U.N</v>
       </c>
       <c r="C36" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D36" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1426,16 +1426,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B37" t="str">
         <v>U.N</v>
       </c>
       <c r="C37" t="str">
-        <v>1 1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D37" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1455,321 +1455,321 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="str">
         <v>U.N</v>
       </c>
       <c r="C38" t="str">
-        <v>1"x1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D38" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E38">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1513.90982568</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4107.78957477</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1435.52160633</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0.21000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="str">
         <v>U.N</v>
       </c>
       <c r="C39" t="str">
-        <v>1 1/2"x1"</v>
+        <v>1"</v>
       </c>
       <c r="D39" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>761.2390224</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>2070.4812192</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2119.4812134</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40" t="str">
         <v>U.N</v>
       </c>
       <c r="C40" t="str">
-        <v>2"x1"</v>
+        <v>1 1/2"x1"</v>
       </c>
       <c r="D40" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E40">
-        <v>3.36</v>
+        <v>0.6</v>
       </c>
       <c r="F40">
-        <v>6193.425126</v>
+        <v>761.2390224</v>
       </c>
       <c r="G40">
-        <v>7071.4431564</v>
+        <v>2070.4812192</v>
       </c>
       <c r="H40">
-        <v>10423.17113712</v>
+        <v>2119.4812134</v>
       </c>
       <c r="I40">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="str">
         <v>U.N</v>
       </c>
       <c r="C41" t="str">
-        <v>3"x2"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D41" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="F41">
-        <v>2292.047715</v>
+        <v>1513.9098256799998</v>
       </c>
       <c r="G41">
-        <v>29005.758986</v>
+        <v>4107.78957477</v>
       </c>
       <c r="H41">
-        <v>12714.450487000002</v>
+        <v>1435.52160633</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="str">
         <v>U.N</v>
       </c>
       <c r="C42" t="str">
-        <v>3"x2"</v>
+        <v>2"x1 1/2"</v>
       </c>
       <c r="D42" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E42">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="F42">
-        <v>3005.9728657600003</v>
+        <v>4975.02049464</v>
       </c>
       <c r="G42">
-        <v>30333.59206296</v>
+        <v>4666.14566208</v>
       </c>
       <c r="H42">
-        <v>5790.01425936</v>
+        <v>8365.71916236</v>
       </c>
       <c r="I42">
-        <v>1.36</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="str">
         <v>U.N</v>
       </c>
       <c r="C43" t="str">
-        <v>4"x3"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D43" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E43">
-        <v>9.08</v>
+        <v>0.84</v>
       </c>
       <c r="F43">
-        <v>12998.19655152</v>
+        <v>1218.40463136</v>
       </c>
       <c r="G43">
-        <v>93446.92937994999</v>
+        <v>2405.29749432</v>
       </c>
       <c r="H43">
-        <v>6703.8853088</v>
+        <v>2057.4519747599998</v>
       </c>
       <c r="I43">
-        <v>2.27</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="str">
         <v>U.N</v>
       </c>
       <c r="C44" t="str">
-        <v>6"x4"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D44" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E44">
-        <v>23.8</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>71721.8731516</v>
+        <v>2292.047715</v>
       </c>
       <c r="G44">
-        <v>159554.595837</v>
+        <v>29005.758986</v>
       </c>
       <c r="H44">
-        <v>29891.2116356</v>
+        <v>12714.450487000002</v>
       </c>
       <c r="I44">
-        <v>5.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="str">
         <v>U.N</v>
       </c>
       <c r="C45" t="str">
-        <v>8"x4"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D45" t="str">
         <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E45">
-        <v>9.86</v>
+        <v>2.72</v>
       </c>
       <c r="F45">
-        <v>13403.11848956</v>
+        <v>3005.9728657600003</v>
       </c>
       <c r="G45">
-        <v>109608.93270389999</v>
+        <v>30333.59206296</v>
       </c>
       <c r="H45">
-        <v>46075.376745719994</v>
+        <v>5790.01425936</v>
       </c>
       <c r="I45">
-        <v>9.86</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="str">
         <v>U.N</v>
       </c>
       <c r="C46" t="str">
-        <v>3"x1/2"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D46" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E46">
-        <v>0.44999999999999996</v>
+        <v>2.27</v>
       </c>
       <c r="F46">
-        <v>475.05925095</v>
+        <v>4835.716075730001</v>
       </c>
       <c r="G46">
-        <v>4934.1710395499995</v>
+        <v>21877.576503</v>
       </c>
       <c r="H46">
-        <v>1427.068851</v>
+        <v>805.47599934</v>
       </c>
       <c r="I46">
-        <v>0.15</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="str">
         <v>U.N</v>
       </c>
       <c r="C47" t="str">
-        <v>4"x1/2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D47" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E47">
-        <v>0.87</v>
+        <v>6.8100000000000005</v>
       </c>
       <c r="F47">
-        <v>1789.1490220499998</v>
+        <v>8162.480475790001</v>
       </c>
       <c r="G47">
-        <v>6480.42129552</v>
+        <v>71569.35287695</v>
       </c>
       <c r="H47">
-        <v>1395.68569857</v>
+        <v>5898.409309459999</v>
       </c>
       <c r="I47">
-        <v>0.174</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="str">
         <v>U.N</v>
       </c>
       <c r="C48" t="str">
-        <v>6"x1"</v>
+        <v>6"x4"</v>
       </c>
       <c r="D48" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E48">
-        <v>0.27</v>
+        <v>23.8</v>
       </c>
       <c r="F48">
-        <v>21.600747090000002</v>
+        <v>71721.8731516</v>
       </c>
       <c r="G48">
-        <v>931.71654864</v>
+        <v>159554.595837</v>
       </c>
       <c r="H48">
-        <v>857.2880940300001</v>
+        <v>29891.211635600004</v>
       </c>
       <c r="I48">
-        <v>0.27</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="49">
@@ -1780,199 +1780,199 @@
         <v>U.N</v>
       </c>
       <c r="C49" t="str">
-        <v>3"x3/4"</v>
+        <v>8"x4"</v>
       </c>
       <c r="D49" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E49">
-        <v>0.16</v>
+        <v>9.86</v>
       </c>
       <c r="F49">
-        <v>298.46138928</v>
+        <v>13403.11848956</v>
       </c>
       <c r="G49">
-        <v>2074.46722032</v>
+        <v>109608.93270389999</v>
       </c>
       <c r="H49">
-        <v>56.77363872</v>
+        <v>46075.376745719994</v>
       </c>
       <c r="I49">
-        <v>0.16</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" t="str">
         <v>U.N</v>
       </c>
       <c r="C50" t="str">
-        <v>4"x1/2"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D50" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E50">
-        <v>0.76</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F50">
-        <v>1355.35859862</v>
+        <v>475.05925095</v>
       </c>
       <c r="G50">
-        <v>7485.67472055</v>
+        <v>4934.1710395499995</v>
       </c>
       <c r="H50">
-        <v>1148.764421</v>
+        <v>1427.0688510000002</v>
       </c>
       <c r="I50">
-        <v>0.12666666666666668</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="str">
         <v>U.N</v>
       </c>
       <c r="C51" t="str">
-        <v>6"x1"</v>
+        <v>4"x1"</v>
       </c>
       <c r="D51" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E51">
-        <v>0.56</v>
+        <v>0.27</v>
       </c>
       <c r="F51">
-        <v>761.2318817600001</v>
+        <v>340.7034204</v>
       </c>
       <c r="G51">
-        <v>6958.120692320001</v>
+        <v>94.09001472000001</v>
       </c>
       <c r="H51">
-        <v>591.9178994400002</v>
+        <v>837.4551473700001</v>
       </c>
       <c r="I51">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" t="str">
         <v>U.N</v>
       </c>
       <c r="C52" t="str">
-        <v>8"x3"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D52" t="str">
-        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E52">
-        <v>1.86</v>
+        <v>0.6</v>
       </c>
       <c r="F52">
-        <v>2528.3773215600004</v>
+        <v>1448.44560165</v>
       </c>
       <c r="G52">
-        <v>19154.62539456</v>
+        <v>6386.3312808</v>
       </c>
       <c r="H52">
-        <v>4858.31302314</v>
+        <v>558.2305512</v>
       </c>
       <c r="I52">
-        <v>1.86</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="str">
         <v>U.N</v>
       </c>
       <c r="C53" t="str">
-        <v>1/2"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D53" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E53">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="F53">
-        <v>635.18214312</v>
+        <v>21.600747090000002</v>
       </c>
       <c r="G53">
-        <v>2578.7811839999995</v>
+        <v>931.71654864</v>
       </c>
       <c r="H53">
-        <v>309.24806279999996</v>
+        <v>857.2880940300001</v>
       </c>
       <c r="I53">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B54" t="str">
         <v>U.N</v>
       </c>
       <c r="C54" t="str">
-        <v>1/2"</v>
+        <v>3"x3/4"</v>
       </c>
       <c r="D54" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E54">
-        <v>2.45</v>
+        <v>0.16</v>
       </c>
       <c r="F54">
-        <v>2032.01152665</v>
+        <v>298.46138928</v>
       </c>
       <c r="G54">
-        <v>13994.894489799999</v>
+        <v>2074.46722032</v>
       </c>
       <c r="H54">
-        <v>642.2774064</v>
+        <v>56.77363872</v>
       </c>
       <c r="I54">
-        <v>0.35000000000000003</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B55" t="str">
         <v>U.N</v>
       </c>
       <c r="C55" t="str">
-        <v>1"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D55" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E55">
-        <v>7.800000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="F55">
-        <v>8106.161157119999</v>
+        <v>864.4845882200001</v>
       </c>
       <c r="G55">
-        <v>17094.81214818</v>
+        <v>5254.9450787900005</v>
       </c>
       <c r="H55">
-        <v>13818.44142354</v>
+        <v>496.33744995999996</v>
       </c>
       <c r="I55">
-        <v>0.7800000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="56">
@@ -1983,503 +1983,503 @@
         <v>U.N</v>
       </c>
       <c r="C56" t="str">
-        <v>1 1/2"</v>
+        <v>4"x3/4"</v>
       </c>
       <c r="D56" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E56">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="F56">
-        <v>4284.4148912</v>
+        <v>490.8740104</v>
       </c>
       <c r="G56">
-        <v>20044.0120768</v>
+        <v>2230.72964176</v>
       </c>
       <c r="H56">
-        <v>10134.9444096</v>
+        <v>652.42697104</v>
       </c>
       <c r="I56">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="str">
         <v>U.N</v>
       </c>
       <c r="C57" t="str">
-        <v>2"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D57" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>0.56</v>
       </c>
       <c r="F57">
-        <v>9027.134684999999</v>
+        <v>761.2318817600001</v>
       </c>
       <c r="G57">
-        <v>87017.276958</v>
+        <v>6958.120692320001</v>
       </c>
       <c r="H57">
-        <v>38143.351461000006</v>
+        <v>591.9178994400002</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B58" t="str">
         <v>U.N</v>
       </c>
       <c r="C58" t="str">
-        <v>1/2"</v>
+        <v>8"x3"</v>
       </c>
       <c r="D58" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
       </c>
       <c r="E58">
-        <v>6.999999999999997</v>
+        <v>1.86</v>
       </c>
       <c r="F58">
-        <v>8295.666621549999</v>
+        <v>2528.3773215600004</v>
       </c>
       <c r="G58">
-        <v>45190.33453864999</v>
+        <v>19154.62539456</v>
       </c>
       <c r="H58">
-        <v>4858.061097049999</v>
+        <v>4858.31302314</v>
       </c>
       <c r="I58">
-        <v>0.34999999999999987</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B59" t="str">
         <v>U.N</v>
       </c>
       <c r="C59" t="str">
-        <v>3/4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D59" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E59">
-        <v>5.499999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F59">
-        <v>8313.0932236</v>
+        <v>635.18214312</v>
       </c>
       <c r="G59">
-        <v>42504.39816535</v>
+        <v>2578.781184</v>
       </c>
       <c r="H59">
-        <v>4283.2420675</v>
+        <v>309.24806279999996</v>
       </c>
       <c r="I59">
-        <v>0.5499999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B60" t="str">
         <v>U.N</v>
       </c>
       <c r="C60" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D60" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E60">
-        <v>0.78</v>
+        <v>2.45</v>
       </c>
       <c r="F60">
-        <v>1137.1971468000002</v>
+        <v>2032.01152665</v>
       </c>
       <c r="G60">
-        <v>271.81559808000003</v>
+        <v>13994.8944898</v>
       </c>
       <c r="H60">
-        <v>2419.31487018</v>
+        <v>642.2774064</v>
       </c>
       <c r="I60">
-        <v>0.78</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B61" t="str">
         <v>U.N</v>
       </c>
       <c r="C61" t="str">
-        <v>1 1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D61" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E61">
-        <v>6.4</v>
+        <v>7.800000000000002</v>
       </c>
       <c r="F61">
-        <v>7969.5770176000005</v>
+        <v>8106.161157119999</v>
       </c>
       <c r="G61">
-        <v>62910.813100800005</v>
+        <v>17094.81214818</v>
       </c>
       <c r="H61">
-        <v>21167.3465648</v>
+        <v>13818.441423539998</v>
       </c>
       <c r="I61">
-        <v>1.6</v>
+        <v>0.7800000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="str">
         <v>U.N</v>
       </c>
       <c r="C62" t="str">
-        <v>6"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D62" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E62">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="F62">
-        <v>288.0099612</v>
+        <v>4284.4148912</v>
       </c>
       <c r="G62">
-        <v>41844.2493924</v>
+        <v>20044.0120768</v>
       </c>
       <c r="H62">
-        <v>11430.5078556</v>
+        <v>10134.9444096</v>
       </c>
       <c r="I62">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" t="str">
         <v>U.N</v>
       </c>
       <c r="C63" t="str">
-        <v>1"</v>
+        <v>2"</v>
       </c>
       <c r="D63" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>9027.134685</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>87017.276958</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>38143.351461000006</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B64" t="str">
         <v>U.N</v>
       </c>
       <c r="C64" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D64" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>8295.666621549999</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>45190.33453864999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>4858.06109705</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.34999999999999987</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B65" t="str">
         <v>U.N</v>
       </c>
       <c r="C65" t="str">
-        <v>4"</v>
+        <v>3/4"</v>
       </c>
       <c r="D65" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>8313.0932236</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>42504.39816535001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4283.2420675</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="str">
         <v>U.N</v>
       </c>
       <c r="C66" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D66" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1137.1971468000002</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>271.81559808000003</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2419.31487018</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B67" t="str">
         <v>U.N</v>
       </c>
       <c r="C67" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D67" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7969.5770176000005</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>62910.8131008</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>21167.3465648</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B68" t="str">
         <v>U.N</v>
       </c>
       <c r="C68" t="str">
-        <v>1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D68" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>288.0099612</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>41844.2493924</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>11430.5078556</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="str">
         <v>U.N</v>
       </c>
       <c r="C69" t="str">
-        <v>3/4"</v>
+        <v>1"</v>
       </c>
       <c r="D69" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E69">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>692.6082069200002</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1851.73883776</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>59.13884088000001</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B70" t="str">
         <v>U.N</v>
       </c>
       <c r="C70" t="str">
-        <v>1"x1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D70" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E70">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1846.9701069</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>9006.62940165</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1351.41848175</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B71" t="str">
         <v>U.N</v>
       </c>
       <c r="C71" t="str">
-        <v>2"x1"</v>
+        <v>4"</v>
       </c>
       <c r="D71" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E71">
-        <v>6.599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>8200.164762</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>44455.8635406</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>7836.6096996</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.5999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="str">
         <v>U.N</v>
       </c>
       <c r="C72" t="str">
-        <v>2"</v>
+        <v>1"</v>
       </c>
       <c r="D72" t="str">
-        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E72">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1207.4836703400001</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>514.1159856</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1907.53309206</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="str">
         <v>U.N</v>
       </c>
       <c r="C73" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D73" t="str">
-        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B74" t="str">
         <v>U.N</v>
@@ -2508,225 +2508,225 @@
         <v>1/2"</v>
       </c>
       <c r="D74" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E74">
-        <v>1.680000000000001</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2505.0234624100003</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>14498.13916936</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>2642.58414434</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0.07000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="str">
         <v>U.N</v>
       </c>
       <c r="C75" t="str">
-        <v>1"</v>
+        <v>3/4"</v>
       </c>
       <c r="D75" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E75">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="F75">
-        <v>285.46195566</v>
+        <v>692.6082069200002</v>
       </c>
       <c r="G75">
-        <v>2609.29525962</v>
+        <v>1851.73883776</v>
       </c>
       <c r="H75">
-        <v>63.12111729</v>
+        <v>59.13884088000001</v>
       </c>
       <c r="I75">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B76" t="str">
         <v>U.N</v>
       </c>
       <c r="C76" t="str">
-        <v>2"x3"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D76" t="str">
-        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E76">
-        <v>26.76</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F76">
-        <v>38814.89039904001</v>
+        <v>652.9527744</v>
       </c>
       <c r="G76">
-        <v>76625.90589048</v>
+        <v>2685.7494881999996</v>
       </c>
       <c r="H76">
-        <v>95165.73406164</v>
+        <v>251.76728985</v>
       </c>
       <c r="I76">
-        <v>26.76</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B77" t="str">
         <v>U.N</v>
       </c>
       <c r="C77" t="str">
-        <v>1/2"</v>
+        <v>1"x3/4"</v>
       </c>
       <c r="D77" t="str">
-        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E77">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="F77">
-        <v>448.93199945</v>
+        <v>1194.0173325</v>
       </c>
       <c r="G77">
-        <v>8886.0994937</v>
+        <v>6320.87991345</v>
       </c>
       <c r="H77">
-        <v>287.05289305</v>
+        <v>1099.6511919</v>
       </c>
       <c r="I77">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" t="str">
         <v>U.N</v>
       </c>
       <c r="C78" t="str">
-        <v>2"</v>
+        <v>2"x1 1/2"</v>
       </c>
       <c r="D78" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E78">
-        <v>18.4</v>
+        <v>1.2</v>
       </c>
       <c r="F78">
-        <v>34056.9168312</v>
+        <v>1166.5982628000002</v>
       </c>
       <c r="G78">
-        <v>89130.31312419998</v>
+        <v>11615.0728308</v>
       </c>
       <c r="H78">
-        <v>42443.090176399994</v>
+        <v>2816.9650229999997</v>
       </c>
       <c r="I78">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="str">
         <v>U.N</v>
       </c>
       <c r="C79" t="str">
-        <v>8"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D79" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E79">
-        <v>64</v>
+        <v>1.2</v>
       </c>
       <c r="F79">
-        <v>86997.929344</v>
+        <v>1740.5780448</v>
       </c>
       <c r="G79">
-        <v>656039.948544</v>
+        <v>4140.9624384</v>
       </c>
       <c r="H79">
-        <v>167167.759936</v>
+        <v>1867.1954987999998</v>
       </c>
       <c r="I79">
-        <v>64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B80" t="str">
         <v>U.N</v>
       </c>
       <c r="C80" t="str">
-        <v>2"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D80" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E80">
-        <v>7.6499999999999995</v>
+        <v>4.2</v>
       </c>
       <c r="F80">
-        <v>15102.7407873</v>
+        <v>5292.988454400001</v>
       </c>
       <c r="G80">
-        <v>12157.3358289</v>
+        <v>28699.828271399998</v>
       </c>
       <c r="H80">
-        <v>26697.429425849994</v>
+        <v>3152.4491777999997</v>
       </c>
       <c r="I80">
-        <v>2.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B81" t="str">
         <v>U.N</v>
       </c>
       <c r="C81" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D81" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
       </c>
       <c r="E81">
-        <v>59.63999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F81">
-        <v>16201.818771180002</v>
+        <v>1207.4836703400001</v>
       </c>
       <c r="G81">
-        <v>361836.35964475997</v>
+        <v>514.1159856</v>
       </c>
       <c r="H81">
-        <v>206306.39023239</v>
+        <v>1907.53309206</v>
       </c>
       <c r="I81">
-        <v>4.97</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="82">
@@ -2737,439 +2737,448 @@
         <v>U.N</v>
       </c>
       <c r="C82" t="str">
-        <v>6"</v>
+        <v>2"</v>
       </c>
       <c r="D82" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
       </c>
       <c r="E82">
-        <v>10.91</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>872.8301879700001</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.00958989</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>34640.78928099</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>10.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B83" t="str">
         <v>U.N</v>
       </c>
       <c r="C83" t="str">
-        <v>2"</v>
+        <v>1"</v>
       </c>
       <c r="D83" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E83">
-        <v>27</v>
+        <v>0.21</v>
       </c>
       <c r="F83">
-        <v>31249.248174</v>
+        <v>285.46195566</v>
       </c>
       <c r="G83">
-        <v>219399.95889900002</v>
+        <v>2609.29525962</v>
       </c>
       <c r="H83">
-        <v>70134.07905</v>
+        <v>63.12111729</v>
       </c>
       <c r="I83">
-        <v>4.5</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B84" t="str">
         <v>U.N</v>
       </c>
       <c r="C84" t="str">
-        <v>3"</v>
+        <v>1/2"</v>
       </c>
       <c r="D84" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E84">
-        <v>36</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="F84">
-        <v>31818.071727000002</v>
+        <v>2505.023462410001</v>
       </c>
       <c r="G84">
-        <v>244051.56768600002</v>
+        <v>14498.13916936</v>
       </c>
       <c r="H84">
-        <v>61417.055835</v>
+        <v>2642.58414434</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>0.07000000000000005</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B85" t="str">
         <v>U.N</v>
       </c>
       <c r="C85" t="str">
-        <v>4"</v>
+        <v>2"x3"</v>
       </c>
       <c r="D85" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
       </c>
       <c r="E85">
-        <v>320.79</v>
+        <v>26.76</v>
       </c>
       <c r="F85">
-        <v>355019.70534402</v>
+        <v>38814.89039904001</v>
       </c>
       <c r="G85">
-        <v>2769711.2189506805</v>
+        <v>76625.90589048</v>
       </c>
       <c r="H85">
-        <v>858707.9916408</v>
+        <v>95165.73406164</v>
       </c>
       <c r="I85">
-        <v>18.87</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" t="str">
         <v>U.N</v>
       </c>
       <c r="C86" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D86" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E86">
-        <v>152.84</v>
+        <v>1.1</v>
       </c>
       <c r="F86">
-        <v>460587.02069288003</v>
+        <v>448.93199945</v>
       </c>
       <c r="G86">
-        <v>1024635.4801566001</v>
+        <v>8886.0994937</v>
       </c>
       <c r="H86">
-        <v>191956.83976407998</v>
+        <v>287.05289305</v>
       </c>
       <c r="I86">
-        <v>38.21</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B87" t="str">
         <v>U.N</v>
       </c>
       <c r="C87" t="str">
-        <v>8"</v>
+        <v>2"</v>
       </c>
       <c r="D87" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E87">
-        <v>60.96</v>
+        <v>18.4</v>
       </c>
       <c r="F87">
-        <v>82865.52770016</v>
+        <v>34056.9168312</v>
       </c>
       <c r="G87">
-        <v>677663.3405304</v>
+        <v>89130.3131242</v>
       </c>
       <c r="H87">
-        <v>276347.47485792</v>
+        <v>42443.090176399994</v>
       </c>
       <c r="I87">
-        <v>60.96</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B88" t="str">
         <v>U.N</v>
       </c>
       <c r="C88" t="str">
-        <v>5/8" x 108</v>
+        <v>8"</v>
       </c>
       <c r="D88" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E88">
-        <v>22.370000000000005</v>
+        <v>64</v>
       </c>
       <c r="F88">
-        <v>NaN</v>
+        <v>86997.929344</v>
       </c>
       <c r="G88">
-        <v>NaN</v>
+        <v>656039.948544</v>
       </c>
       <c r="H88">
-        <v>NaN</v>
+        <v>167167.759936</v>
       </c>
       <c r="I88">
-        <v>0.22370000000000004</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B89" t="str">
         <v>U.N</v>
       </c>
       <c r="C89" t="str">
-        <v>3/4" x 127</v>
+        <v>2"</v>
       </c>
       <c r="D89" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E89">
-        <v>20.389999999999993</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="F89">
-        <v>NaN</v>
+        <v>15102.7407873</v>
       </c>
       <c r="G89">
-        <v>NaN</v>
+        <v>12157.3358289</v>
       </c>
       <c r="H89">
-        <v>NaN</v>
+        <v>26697.429425849994</v>
       </c>
       <c r="I89">
-        <v>0.2998529411764705</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="B90" t="str">
         <v>U.N</v>
       </c>
       <c r="C90" t="str">
-        <v>7/8" x 146</v>
+        <v>3"</v>
       </c>
       <c r="D90" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E90">
-        <v>101.52</v>
+        <v>59.63999999999999</v>
       </c>
       <c r="F90">
-        <v>NaN</v>
+        <v>16201.818771180002</v>
       </c>
       <c r="G90">
-        <v>NaN</v>
+        <v>361836.35964475985</v>
       </c>
       <c r="H90">
-        <v>NaN</v>
+        <v>206306.39023239003</v>
       </c>
       <c r="I90">
-        <v>0.705</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B91" t="str">
         <v>U.N</v>
       </c>
       <c r="C91" t="str">
-        <v>1" x 171</v>
+        <v>6"</v>
       </c>
       <c r="D91" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E91">
-        <v>63.25</v>
+        <v>10.91</v>
       </c>
       <c r="F91">
-        <v>NaN</v>
+        <v>872.8301879700001</v>
       </c>
       <c r="G91">
-        <v>NaN</v>
+        <v>0.00958989</v>
       </c>
       <c r="H91">
-        <v>NaN</v>
+        <v>34640.78928099</v>
       </c>
       <c r="I91">
-        <v>1.58125</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B92" t="str">
         <v>U.N</v>
       </c>
       <c r="C92" t="str">
-        <v>1 1/8" x 191</v>
+        <v>2"</v>
       </c>
       <c r="D92" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E92">
-        <v>34.88</v>
+        <v>27</v>
       </c>
       <c r="F92">
-        <v>NaN</v>
+        <v>31249.248174</v>
       </c>
       <c r="G92">
-        <v>NaN</v>
+        <v>219399.95889900002</v>
       </c>
       <c r="H92">
-        <v>NaN</v>
+        <v>70134.07905</v>
       </c>
       <c r="I92">
-        <v>1.4533333333333334</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B93" t="str">
         <v>U.N</v>
       </c>
       <c r="C93" t="str">
-        <v>2"</v>
+        <v>3"</v>
       </c>
       <c r="D93" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E93">
-        <v>0.09</v>
+        <v>36</v>
+      </c>
+      <c r="F93">
+        <v>31818.071726999995</v>
+      </c>
+      <c r="G93">
+        <v>244051.567686</v>
+      </c>
+      <c r="H93">
+        <v>61417.055835</v>
       </c>
       <c r="I93">
-        <v>0.09</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B94" t="str">
         <v>U.N</v>
       </c>
       <c r="C94" t="str">
-        <v>3"</v>
+        <v>4"</v>
       </c>
       <c r="D94" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E94">
-        <v>1.2600000000000002</v>
+        <v>320.79</v>
       </c>
       <c r="F94">
-        <v>NaN</v>
+        <v>355019.7053440199</v>
       </c>
       <c r="G94">
-        <v>NaN</v>
+        <v>2769711.21895068</v>
       </c>
       <c r="H94">
-        <v>NaN</v>
+        <v>858707.9916408</v>
       </c>
       <c r="I94">
-        <v>0.14</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B95" t="str">
         <v>U.N</v>
       </c>
       <c r="C95" t="str">
-        <v>2"</v>
+        <v>6"</v>
       </c>
       <c r="D95" t="str">
-        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E95">
-        <v>0.2</v>
+        <v>152.84</v>
       </c>
       <c r="F95">
-        <v>NaN</v>
+        <v>460587.02069288</v>
       </c>
       <c r="G95">
-        <v>NaN</v>
+        <v>1024635.4801566</v>
       </c>
       <c r="H95">
-        <v>NaN</v>
+        <v>191956.83976408</v>
       </c>
       <c r="I95">
-        <v>0.1</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B96" t="str">
         <v>U.N</v>
       </c>
       <c r="C96" t="str">
-        <v>2"</v>
+        <v>8"</v>
       </c>
       <c r="D96" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E96">
-        <v>1.2100000000000002</v>
+        <v>60.96</v>
       </c>
       <c r="F96">
-        <v>NaN</v>
+        <v>82865.52770016</v>
       </c>
       <c r="G96">
-        <v>NaN</v>
+        <v>677663.3405304</v>
       </c>
       <c r="H96">
-        <v>NaN</v>
+        <v>276347.47485792</v>
       </c>
       <c r="I96">
-        <v>0.11000000000000001</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B97" t="str">
         <v>U.N</v>
       </c>
       <c r="C97" t="str">
-        <v>3"</v>
+        <v>5/8" x 108</v>
       </c>
       <c r="D97" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E97">
-        <v>0.76</v>
+        <v>22.370000000000005</v>
       </c>
       <c r="F97">
         <v>NaN</v>
@@ -3181,24 +3190,24 @@
         <v>NaN</v>
       </c>
       <c r="I97">
-        <v>0.19</v>
+        <v>0.22370000000000004</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B98" t="str">
         <v>U.N</v>
       </c>
       <c r="C98" t="str">
-        <v>4"</v>
+        <v>3/4" x 127</v>
       </c>
       <c r="D98" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E98">
-        <v>5.12</v>
+        <v>20.389999999999993</v>
       </c>
       <c r="F98">
         <v>NaN</v>
@@ -3210,24 +3219,24 @@
         <v>NaN</v>
       </c>
       <c r="I98">
-        <v>0.32</v>
+        <v>0.2998529411764705</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B99" t="str">
         <v>U.N</v>
       </c>
       <c r="C99" t="str">
-        <v>6"</v>
+        <v>7/8" x 146</v>
       </c>
       <c r="D99" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E99">
-        <v>2.8499999999999996</v>
+        <v>101.52</v>
       </c>
       <c r="F99">
         <v>NaN</v>
@@ -3239,24 +3248,24 @@
         <v>NaN</v>
       </c>
       <c r="I99">
-        <v>0.57</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B100" t="str">
         <v>U.N</v>
       </c>
       <c r="C100" t="str">
-        <v>8"</v>
+        <v>1" x 171</v>
       </c>
       <c r="D100" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E100">
-        <v>1.48</v>
+        <v>63.25</v>
       </c>
       <c r="F100">
         <v>NaN</v>
@@ -3268,36 +3277,36 @@
         <v>NaN</v>
       </c>
       <c r="I100">
-        <v>0.74</v>
+        <v>1.58125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B101" t="str">
         <v>U.N</v>
       </c>
       <c r="C101" t="str">
-        <v>1/2"</v>
+        <v>1 1/8" x 191</v>
       </c>
       <c r="D101" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>34.88</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1.4533333333333334</v>
       </c>
     </row>
     <row r="102">
@@ -3308,54 +3317,45 @@
         <v>U.N</v>
       </c>
       <c r="C102" t="str">
-        <v>1"</v>
+        <v>2"</v>
       </c>
       <c r="D102" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B103" t="str">
         <v>U.N</v>
       </c>
       <c r="C103" t="str">
-        <v>1 1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D103" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1.2600000000000002</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="104">
@@ -3366,88 +3366,88 @@
         <v>U.N</v>
       </c>
       <c r="C104" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D104" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="F104">
-        <v>4000.13835</v>
+        <v>NaN</v>
       </c>
       <c r="G104">
-        <v>498226.33675</v>
+        <v>NaN</v>
       </c>
       <c r="H104">
-        <v>178727.1655</v>
+        <v>NaN</v>
       </c>
       <c r="I104">
-        <v>25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B105" t="str">
         <v>U.N</v>
       </c>
       <c r="C105" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D105" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E105">
-        <v>72</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="F105">
-        <v>31544.841563999995</v>
+        <v>NaN</v>
       </c>
       <c r="G105">
-        <v>25603.2</v>
+        <v>NaN</v>
       </c>
       <c r="H105">
-        <v>171604.529928</v>
+        <v>NaN</v>
       </c>
       <c r="I105">
-        <v>36</v>
+        <v>0.11000000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" t="str">
         <v>U.N</v>
       </c>
       <c r="C106" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D106" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E106">
-        <v>136</v>
+        <v>0.76</v>
       </c>
       <c r="F106">
-        <v>79519.55400799999</v>
+        <v>NaN</v>
       </c>
       <c r="G106">
-        <v>1689868.156128</v>
+        <v>NaN</v>
       </c>
       <c r="H106">
-        <v>491774.37303200003</v>
+        <v>NaN</v>
       </c>
       <c r="I106">
-        <v>68</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B107" t="str">
         <v>U.N</v>
@@ -3456,85 +3456,85 @@
         <v>4"</v>
       </c>
       <c r="D107" t="str">
-        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E107">
-        <v>122</v>
+        <v>5.12</v>
       </c>
       <c r="F107">
-        <v>71333.71756599999</v>
+        <v>NaN</v>
       </c>
       <c r="G107">
-        <v>1039777.539962</v>
+        <v>NaN</v>
       </c>
       <c r="H107">
-        <v>211301.95711000002</v>
+        <v>NaN</v>
       </c>
       <c r="I107">
-        <v>122</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B108" t="str">
         <v>U.N</v>
       </c>
       <c r="C108" t="str">
-        <v>1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D108" t="str">
-        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E108">
-        <v>2.8</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="F108">
-        <v>5086.7973702</v>
+        <v>NaN</v>
       </c>
       <c r="G108">
-        <v>8000.0522224</v>
+        <v>NaN</v>
       </c>
       <c r="H108">
-        <v>890.8059174</v>
+        <v>NaN</v>
       </c>
       <c r="I108">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" t="str">
         <v>U.N</v>
       </c>
       <c r="C109" t="str">
-        <v>1/2"</v>
+        <v>8"</v>
       </c>
       <c r="D109" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E109">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="F109">
-        <v>954.9929328</v>
+        <v>NaN</v>
       </c>
       <c r="G109">
-        <v>18.628802399999998</v>
+        <v>NaN</v>
       </c>
       <c r="H109">
-        <v>500.5035504</v>
+        <v>NaN</v>
       </c>
       <c r="I109">
-        <v>2.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B110" t="str">
         <v>U.N</v>
@@ -3543,51 +3543,51 @@
         <v>1/2"</v>
       </c>
       <c r="D110" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E110">
-        <v>75.59999999999997</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>111080.45215680002</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>627052.4588888</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>84939.65308640002</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2.799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B111" t="str">
         <v>U.N</v>
       </c>
       <c r="C111" t="str">
-        <v>3/4"</v>
+        <v>1"</v>
       </c>
       <c r="D111" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E111">
-        <v>76.5</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>110565.73502099999</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>538567.1772840001</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>80292.414087</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3598,25 +3598,25 @@
         <v>U.N</v>
       </c>
       <c r="C112" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D112" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>9515.398522</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>86976.508654</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2607.211243</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3627,303 +3627,312 @@
         <v>U.N</v>
       </c>
       <c r="C113" t="str">
-        <v>1 1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D113" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E113">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F113">
-        <v>40780.27938</v>
+        <v>4000.13835</v>
       </c>
       <c r="G113">
-        <v>298935.80205</v>
+        <v>498226.33675</v>
       </c>
       <c r="H113">
-        <v>117114.74846999999</v>
+        <v>178727.1655</v>
       </c>
       <c r="I113">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114" t="str">
         <v>U.N</v>
       </c>
       <c r="C114" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D114" t="str">
-        <v>NEEDLE VALVE, #3000, SS 316</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>31544.841563999995</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>25603.2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>171604.529928</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B115" t="str">
         <v>U.N</v>
       </c>
       <c r="C115" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D115" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="F115">
+        <v>79519.55400799999</v>
+      </c>
+      <c r="G115">
+        <v>1689868.156128</v>
+      </c>
+      <c r="H115">
+        <v>491774.37303200003</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B116" t="str">
         <v>U.N</v>
       </c>
       <c r="C116" t="str">
-        <v>1 1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D116" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="F116">
-        <v>NaN</v>
+        <v>71333.71756599999</v>
       </c>
       <c r="G116">
-        <v>NaN</v>
+        <v>1039777.539962</v>
       </c>
       <c r="H116">
-        <v>NaN</v>
+        <v>211301.95711000002</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B117" t="str">
         <v>U.N</v>
       </c>
       <c r="C117" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D117" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F117">
-        <v>NaN</v>
+        <v>5086.7973702</v>
       </c>
       <c r="G117">
-        <v>NaN</v>
+        <v>8000.0522224</v>
       </c>
       <c r="H117">
-        <v>NaN</v>
+        <v>890.8059174</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B118" t="str">
         <v>U.N</v>
       </c>
       <c r="C118" t="str">
-        <v>3"</v>
+        <v>1/2"</v>
       </c>
       <c r="D118" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F118">
-        <v>NaN</v>
+        <v>954.9929328</v>
       </c>
       <c r="G118">
-        <v>NaN</v>
+        <v>18.628802399999998</v>
       </c>
       <c r="H118">
-        <v>NaN</v>
+        <v>500.5035504</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B119" t="str">
         <v>U.N</v>
       </c>
       <c r="C119" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D119" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>75.59999999999997</v>
       </c>
       <c r="F119">
-        <v>NaN</v>
+        <v>111080.45215679998</v>
       </c>
       <c r="G119">
-        <v>NaN</v>
+        <v>627052.4588887999</v>
       </c>
       <c r="H119">
-        <v>NaN</v>
+        <v>84939.65308640001</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2.799999999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B120" t="str">
         <v>U.N</v>
       </c>
       <c r="C120" t="str">
-        <v>2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D120" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="F120">
-        <v>NaN</v>
+        <v>110565.73502100001</v>
       </c>
       <c r="G120">
-        <v>NaN</v>
+        <v>538567.177284</v>
       </c>
       <c r="H120">
-        <v>NaN</v>
+        <v>80292.41408699998</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B121" t="str">
         <v>U.N</v>
       </c>
       <c r="C121" t="str">
-        <v>3"</v>
+        <v>1"</v>
       </c>
       <c r="D121" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>NaN</v>
+        <v>9515.398522</v>
       </c>
       <c r="G121">
-        <v>NaN</v>
+        <v>86976.508654</v>
       </c>
       <c r="H121">
-        <v>NaN</v>
+        <v>2607.211243</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B122" t="str">
         <v>U.N</v>
       </c>
       <c r="C122" t="str">
-        <v>4"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D122" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F122">
-        <v>NaN</v>
+        <v>40780.27938</v>
       </c>
       <c r="G122">
-        <v>NaN</v>
+        <v>298935.80205</v>
       </c>
       <c r="H122">
-        <v>NaN</v>
+        <v>117114.74846999999</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B123" t="str">
         <v>U.N</v>
       </c>
       <c r="C123" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D123" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>NEEDLE VALVE, #3000, SS 316</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -3937,10 +3946,10 @@
         <v>U.N</v>
       </c>
       <c r="C124" t="str">
-        <v>8"</v>
+        <v>1"</v>
       </c>
       <c r="D124" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3951,16 +3960,16 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="B125" t="str">
         <v>U.N</v>
       </c>
       <c r="C125" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D125" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3980,16 +3989,16 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B126" t="str">
         <v>U.N</v>
       </c>
       <c r="C126" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D126" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4009,16 +4018,16 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B127" t="str">
         <v>U.N</v>
       </c>
       <c r="C127" t="str">
-        <v>1"</v>
+        <v>3"</v>
       </c>
       <c r="D127" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4038,16 +4047,16 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B128" t="str">
         <v>U.N</v>
       </c>
       <c r="C128" t="str">
-        <v>1 1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D128" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4067,19 +4076,28 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B129" t="str">
         <v>U.N</v>
       </c>
       <c r="C129" t="str">
-        <v>1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D129" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E129">
         <v>0</v>
+      </c>
+      <c r="F129">
+        <v>NaN</v>
+      </c>
+      <c r="G129">
+        <v>NaN</v>
+      </c>
+      <c r="H129">
+        <v>NaN</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4087,16 +4105,16 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B130" t="str">
         <v>U.N</v>
       </c>
       <c r="C130" t="str">
-        <v>2"</v>
+        <v>3"</v>
       </c>
       <c r="D130" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4116,28 +4134,28 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B131" t="str">
         <v>U.N</v>
       </c>
       <c r="C131" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D131" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1123.5360492500001</v>
+        <v>NaN</v>
       </c>
       <c r="G131">
-        <v>7983.927255680001</v>
+        <v>NaN</v>
       </c>
       <c r="H131">
-        <v>2286.6611408400004</v>
+        <v>NaN</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4145,28 +4163,28 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B132" t="str">
         <v>U.N</v>
       </c>
       <c r="C132" t="str">
-        <v>1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D132" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>2787.9894408200003</v>
+        <v>NaN</v>
       </c>
       <c r="G132">
-        <v>16575.44739914</v>
+        <v>NaN</v>
       </c>
       <c r="H132">
-        <v>2481.63685216</v>
+        <v>NaN</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4180,22 +4198,13 @@
         <v>U.N</v>
       </c>
       <c r="C133" t="str">
-        <v>3"</v>
+        <v>8"</v>
       </c>
       <c r="D133" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E133">
         <v>0</v>
-      </c>
-      <c r="F133">
-        <v>2528.3773215600004</v>
-      </c>
-      <c r="G133">
-        <v>19154.62539456</v>
-      </c>
-      <c r="H133">
-        <v>4858.31302314</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -4203,28 +4212,28 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B134" t="str">
         <v>U.N</v>
       </c>
       <c r="C134" t="str">
-        <v>3/4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D134" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>789.3353996799999</v>
+        <v>NaN</v>
       </c>
       <c r="G134">
-        <v>4305.19686208</v>
+        <v>NaN</v>
       </c>
       <c r="H134">
-        <v>709.20060976</v>
+        <v>NaN</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -4232,16 +4241,16 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B135" t="str">
         <v>U.N</v>
       </c>
       <c r="C135" t="str">
-        <v>1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D135" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4261,16 +4270,16 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B136" t="str">
         <v>U.N</v>
       </c>
       <c r="C136" t="str">
-        <v>3/4"</v>
+        <v>1"</v>
       </c>
       <c r="D136" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4290,16 +4299,16 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B137" t="str">
         <v>U.N</v>
       </c>
       <c r="C137" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D137" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4319,28 +4328,19 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B138" t="str">
         <v>U.N</v>
       </c>
       <c r="C138" t="str">
-        <v>1 1/2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D138" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 80</v>
       </c>
       <c r="E138">
         <v>0</v>
-      </c>
-      <c r="F138">
-        <v>NaN</v>
-      </c>
-      <c r="G138">
-        <v>NaN</v>
-      </c>
-      <c r="H138">
-        <v>NaN</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>2"</v>
       </c>
       <c r="D139" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 80</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4377,28 +4377,28 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B140" t="str">
         <v>U.N</v>
       </c>
       <c r="C140" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D140" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>NaN</v>
+        <v>1123.5360492500001</v>
       </c>
       <c r="G140">
-        <v>NaN</v>
+        <v>7983.927255680001</v>
       </c>
       <c r="H140">
-        <v>NaN</v>
+        <v>2286.6611408400004</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -4406,36 +4406,297 @@
     </row>
     <row r="141">
       <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D141" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>2787.9894408200003</v>
+      </c>
+      <c r="G141">
+        <v>16575.44739914</v>
+      </c>
+      <c r="H141">
+        <v>2481.63685216</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C142" t="str">
+        <v>3"</v>
+      </c>
+      <c r="D142" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2528.3773215600004</v>
+      </c>
+      <c r="G142">
+        <v>19154.62539456</v>
+      </c>
+      <c r="H142">
+        <v>4858.31302314</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
         <v>3</v>
       </c>
-      <c r="B141" t="str">
-        <v>U.N</v>
-      </c>
-      <c r="C141" t="str">
+      <c r="B143" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C143" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D143" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>789.3353996799999</v>
+      </c>
+      <c r="G143">
+        <v>4305.19686208</v>
+      </c>
+      <c r="H143">
+        <v>709.20060976</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>94</v>
+      </c>
+      <c r="B144" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C144" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D144" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>NaN</v>
+      </c>
+      <c r="G144">
+        <v>NaN</v>
+      </c>
+      <c r="H144">
+        <v>NaN</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>40</v>
+      </c>
+      <c r="B145" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D145" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>NaN</v>
+      </c>
+      <c r="G145">
+        <v>NaN</v>
+      </c>
+      <c r="H145">
+        <v>NaN</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="B146" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C146" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D146" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>NaN</v>
+      </c>
+      <c r="G146">
+        <v>NaN</v>
+      </c>
+      <c r="H146">
+        <v>NaN</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C147" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D147" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>NaN</v>
+      </c>
+      <c r="G147">
+        <v>NaN</v>
+      </c>
+      <c r="H147">
+        <v>NaN</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C148" t="str">
         <v>2"</v>
       </c>
-      <c r="D141" t="str">
+      <c r="D148" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>NaN</v>
+      </c>
+      <c r="G148">
+        <v>NaN</v>
+      </c>
+      <c r="H148">
+        <v>NaN</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D149" t="str">
         <v>THREAD  SCH 80</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>NaN</v>
-      </c>
-      <c r="G141">
-        <v>NaN</v>
-      </c>
-      <c r="H141">
-        <v>NaN</v>
-      </c>
-      <c r="I141">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>NaN</v>
+      </c>
+      <c r="G149">
+        <v>NaN</v>
+      </c>
+      <c r="H149">
+        <v>NaN</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2"</v>
+      </c>
+      <c r="D150" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>NaN</v>
+      </c>
+      <c r="G150">
+        <v>NaN</v>
+      </c>
+      <c r="H150">
+        <v>NaN</v>
+      </c>
+      <c r="I150">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I150"/>
   </ignoredErrors>
 </worksheet>
 </file>